--- a/examples/from_spreadsheet.xlsx
+++ b/examples/from_spreadsheet.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="7"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="options" sheetId="1" state="visible" r:id="rId2"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="77">
   <si>
     <t xml:space="preserve">field</t>
   </si>
@@ -62,25 +62,25 @@
     <t xml:space="preserve">label</t>
   </si>
   <si>
-    <t xml:space="preserve">style</t>
-  </si>
-  <si>
     <t xml:space="preserve">subscript</t>
   </si>
   <si>
+    <t xml:space="preserve">bg_color</t>
+  </si>
+  <si>
     <t xml:space="preserve">homology-arm</t>
   </si>
   <si>
     <t xml:space="preserve">homology arm loc1</t>
   </si>
   <si>
-    <t xml:space="preserve">bg:blue</t>
-  </si>
-  <si>
     <t xml:space="preserve">p1L-o</t>
   </si>
   <si>
-    <t xml:space="preserve">cds</t>
+    <t xml:space="preserve">blue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CDS</t>
   </si>
   <si>
     <t xml:space="preserve">flag</t>
@@ -125,9 +125,6 @@
     <t xml:space="preserve">p14</t>
   </si>
   <si>
-    <t xml:space="preserve">CDS</t>
-  </si>
-  <si>
     <t xml:space="preserve">Amp. marker</t>
   </si>
   <si>
@@ -137,12 +134,12 @@
     <t xml:space="preserve">p16_bGHpolyA</t>
   </si>
   <si>
-    <t xml:space="preserve">bg:green</t>
-  </si>
-  <si>
     <t xml:space="preserve">p16</t>
   </si>
   <si>
+    <t xml:space="preserve">green</t>
+  </si>
+  <si>
     <t xml:space="preserve">p17</t>
   </si>
   <si>
@@ -185,7 +182,7 @@
     <t xml:space="preserve">conn D-F</t>
   </si>
   <si>
-    <t xml:space="preserve">&lt;em&gt;acs&lt;/em&gt;</t>
+    <t xml:space="preserve">acs</t>
   </si>
   <si>
     <t xml:space="preserve">p7b</t>
@@ -386,15 +383,15 @@
   </sheetPr>
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.265306122449"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="118.775510204082"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="19.265306122449"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.27"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="118.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="19.27"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -440,7 +437,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -455,14 +452,15 @@
   </sheetPr>
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B17" activeCellId="0" sqref="B17"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="32.1275510204082"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.2295918367347"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="32.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.23"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="8.56"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -475,7 +473,7 @@
       <c r="C1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="0" t="s">
         <v>12</v>
       </c>
     </row>
@@ -501,10 +499,10 @@
         <v>18</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -515,10 +513,10 @@
         <v>21</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -526,10 +524,10 @@
         <v>23</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -539,7 +537,7 @@
       <c r="B6" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="0" t="s">
+      <c r="C6" s="0" t="s">
         <v>27</v>
       </c>
     </row>
@@ -547,7 +545,7 @@
       <c r="A7" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="0" t="s">
+      <c r="C7" s="0" t="s">
         <v>28</v>
       </c>
     </row>
@@ -558,22 +556,22 @@
       <c r="B8" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D8" s="0" t="s">
+      <c r="C8" s="0" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="C9" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="C9" s="0" t="s">
-        <v>15</v>
-      </c>
       <c r="D9" s="0" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -581,13 +579,13 @@
         <v>25</v>
       </c>
       <c r="B10" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="C10" s="0" t="s">
+      <c r="D10" s="0" t="s">
         <v>36</v>
-      </c>
-      <c r="D10" s="0" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -598,26 +596,26 @@
         <v>21</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="0" t="s">
-        <v>39</v>
+      <c r="C12" s="0" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="D13" s="0" t="s">
-        <v>40</v>
+      <c r="C13" s="0" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -625,27 +623,27 @@
         <v>13</v>
       </c>
       <c r="B14" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="C14" s="0" t="s">
-        <v>15</v>
-      </c>
       <c r="D14" s="0" t="s">
-        <v>42</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="D15" s="0" t="s">
-        <v>43</v>
+      <c r="C15" s="0" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -660,13 +658,15 @@
   </sheetPr>
   <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="51.5051020408163"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="51.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="8.56"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -677,24 +677,22 @@
         <v>10</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1" s="2" t="s">
         <v>11</v>
       </c>
+      <c r="E1" s="2"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" s="0" t="s">
         <v>45</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="D2" s="0" t="s">
         <v>46</v>
-      </c>
-      <c r="D2" s="0" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -702,7 +700,7 @@
         <v>23</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -710,10 +708,10 @@
         <v>29</v>
       </c>
       <c r="B4" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D4" s="0" t="s">
         <v>49</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -721,7 +719,7 @@
         <v>23</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -729,21 +727,21 @@
         <v>17</v>
       </c>
       <c r="B6" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D6" s="0" t="s">
         <v>52</v>
-      </c>
-      <c r="D6" s="0" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="D7" s="4" t="s">
         <v>55</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -751,10 +749,10 @@
         <v>17</v>
       </c>
       <c r="B8" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D8" s="0" t="s">
         <v>57</v>
-      </c>
-      <c r="D8" s="0" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -762,7 +760,7 @@
         <v>23</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -789,21 +787,21 @@
         <v>29</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="4" t="s">
-        <v>32</v>
+      <c r="A13" s="0" t="s">
+        <v>17</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -811,10 +809,10 @@
         <v>25</v>
       </c>
       <c r="B14" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" s="0" t="s">
         <v>35</v>
-      </c>
-      <c r="D14" s="0" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -822,7 +820,7 @@
         <v>23</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E15" s="4"/>
     </row>
@@ -831,19 +829,19 @@
         <v>23</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E16" s="4"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="B17" s="0" t="s">
         <v>45</v>
       </c>
-      <c r="B17" s="0" t="s">
-        <v>46</v>
-      </c>
       <c r="D17" s="0" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E17" s="4"/>
     </row>
@@ -853,14 +851,14 @@
       </c>
       <c r="C18" s="4"/>
       <c r="D18" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E18" s="4"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
@@ -875,14 +873,16 @@
   </sheetPr>
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="38.984693877551"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="43.1632653061225"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="38.97"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="43.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="12.9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="4" style="0" width="8.56"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -895,7 +895,7 @@
       <c r="C1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="0" t="s">
         <v>12</v>
       </c>
     </row>
@@ -904,7 +904,7 @@
         <v>13</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C2" s="0" t="s">
         <v>15</v>
@@ -918,9 +918,9 @@
         <v>17</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="D3" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="C3" s="0" t="s">
         <v>19</v>
       </c>
     </row>
@@ -929,17 +929,17 @@
         <v>23</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>15</v>
+        <v>64</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>65</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="D5" s="0" t="s">
+      <c r="C5" s="0" t="s">
         <v>27</v>
       </c>
     </row>
@@ -950,8 +950,8 @@
       <c r="B6" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="0" t="s">
-        <v>66</v>
+      <c r="C6" s="0" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -962,10 +962,10 @@
         <v>21</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>15</v>
+        <v>66</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>67</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -975,19 +975,19 @@
       <c r="B8" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D8" s="0" t="s">
+      <c r="C8" s="0" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="C9" s="0" t="s">
         <v>33</v>
-      </c>
-      <c r="D9" s="0" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -995,11 +995,10 @@
         <v>25</v>
       </c>
       <c r="B10" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" s="0" t="s">
         <v>35</v>
-      </c>
-      <c r="C10" s="4"/>
-      <c r="D10" s="0" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1009,24 +1008,24 @@
       <c r="B11" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="0" t="s">
-        <v>38</v>
+      <c r="C11" s="0" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="0" t="s">
-        <v>39</v>
+      <c r="C12" s="0" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="D13" s="0" t="s">
-        <v>40</v>
+      <c r="C13" s="0" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1034,27 +1033,27 @@
         <v>13</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>42</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="D15" s="0" t="s">
-        <v>43</v>
+      <c r="C15" s="0" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -1069,13 +1068,15 @@
   </sheetPr>
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="28.2857142857143"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="28.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1023" min="2" style="0" width="8.56"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1024" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1088,7 +1089,7 @@
       <c r="C1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="0" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1097,7 +1098,10 @@
         <v>13</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>15</v>
       </c>
       <c r="D2" s="0" t="s">
         <v>16</v>
@@ -1108,9 +1112,9 @@
         <v>17</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="D3" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="C3" s="0" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1118,38 +1122,44 @@
       <c r="A4" s="0" t="s">
         <v>23</v>
       </c>
+      <c r="C4" s="0" t="s">
+        <v>64</v>
+      </c>
       <c r="D4" s="0" t="s">
-        <v>65</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="D5" s="0" t="s">
+      <c r="C5" s="0" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="22.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
         <v>23</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="0" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C6" s="0" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="22.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
         <v>20</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>21</v>
       </c>
+      <c r="C7" s="0" t="s">
+        <v>66</v>
+      </c>
       <c r="D7" s="0" t="s">
-        <v>67</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1159,19 +1169,19 @@
       <c r="B8" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D8" s="0" t="s">
+      <c r="C8" s="0" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="C9" s="0" t="s">
         <v>33</v>
-      </c>
-      <c r="D9" s="0" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1179,11 +1189,10 @@
         <v>25</v>
       </c>
       <c r="B10" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" s="0" t="s">
         <v>35</v>
-      </c>
-      <c r="C10" s="4"/>
-      <c r="D10" s="0" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1193,24 +1202,24 @@
       <c r="B11" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="0" t="s">
-        <v>38</v>
+      <c r="C11" s="0" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="0" t="s">
-        <v>39</v>
+      <c r="C12" s="0" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="D13" s="0" t="s">
-        <v>40</v>
+      <c r="C13" s="0" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1218,24 +1227,27 @@
         <v>13</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>63</v>
+        <v>62</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>41</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>42</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="D15" s="0" t="s">
-        <v>43</v>
+      <c r="C15" s="0" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
@@ -1250,13 +1262,14 @@
   </sheetPr>
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B42" activeCellId="0" sqref="B42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="21.6326530612245"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1023" min="1" style="0" width="21.63"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1024" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1269,7 +1282,7 @@
       <c r="C1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="0" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1278,7 +1291,7 @@
         <v>13</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C2" s="0" t="s">
         <v>15</v>
@@ -1292,9 +1305,9 @@
         <v>17</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="D3" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="C3" s="0" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1302,18 +1315,18 @@
       <c r="A4" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="0" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="22.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C4" s="0" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
         <v>25</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="0" t="s">
+      <c r="C5" s="0" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1321,8 +1334,8 @@
       <c r="A6" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="0" t="s">
-        <v>66</v>
+      <c r="C6" s="0" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1330,10 +1343,10 @@
         <v>20</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="D7" s="0" t="s">
-        <v>67</v>
+        <v>69</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1341,21 +1354,21 @@
         <v>29</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="D8" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="C8" s="0" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>72</v>
-      </c>
-      <c r="D9" s="0" t="s">
-        <v>34</v>
+        <v>71</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1363,11 +1376,10 @@
         <v>25</v>
       </c>
       <c r="B10" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" s="0" t="s">
         <v>35</v>
-      </c>
-      <c r="C10" s="4"/>
-      <c r="D10" s="0" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1375,26 +1387,26 @@
         <v>20</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="D11" s="0" t="s">
-        <v>38</v>
+        <v>72</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="0" t="s">
-        <v>39</v>
+      <c r="C12" s="0" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="D13" s="0" t="s">
-        <v>40</v>
+      <c r="C13" s="0" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1402,24 +1414,24 @@
         <v>13</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>74</v>
-      </c>
-      <c r="D14" s="0" t="s">
-        <v>42</v>
+        <v>73</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="D15" s="0" t="s">
-        <v>43</v>
+      <c r="C15" s="0" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -1432,15 +1444,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B15" activeCellId="0" sqref="B15"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="21.6326530612245"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1023" min="1" style="0" width="21.63"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1024" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1453,19 +1466,16 @@
       <c r="C1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>12</v>
-      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>13</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="D2" s="0" t="s">
-        <v>16</v>
+        <v>74</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1475,7 +1485,7 @@
       <c r="B3" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="C3" s="0" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1483,8 +1493,8 @@
       <c r="A4" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="0" t="s">
-        <v>65</v>
+      <c r="C4" s="0" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1494,7 +1504,7 @@
       <c r="B5" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="0" t="s">
+      <c r="C5" s="0" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1502,8 +1512,8 @@
       <c r="A6" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="0" t="s">
-        <v>66</v>
+      <c r="C6" s="0" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1513,8 +1523,8 @@
       <c r="B7" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="0" t="s">
-        <v>67</v>
+      <c r="C7" s="0" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1524,19 +1534,19 @@
       <c r="B8" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D8" s="0" t="s">
+      <c r="C8" s="0" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="C9" s="0" t="s">
         <v>33</v>
-      </c>
-      <c r="D9" s="0" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1544,11 +1554,10 @@
         <v>25</v>
       </c>
       <c r="B10" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" s="0" t="s">
         <v>35</v>
-      </c>
-      <c r="C10" s="4"/>
-      <c r="D10" s="0" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1558,24 +1567,24 @@
       <c r="B11" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="0" t="s">
-        <v>38</v>
+      <c r="C11" s="0" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="0" t="s">
-        <v>39</v>
+      <c r="C12" s="0" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="D13" s="0" t="s">
-        <v>40</v>
+      <c r="C13" s="0" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1583,24 +1592,24 @@
         <v>13</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="D14" s="0" t="s">
-        <v>42</v>
+        <v>62</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="D15" s="0" t="s">
-        <v>43</v>
+      <c r="C15" s="0" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -1615,13 +1624,14 @@
   </sheetPr>
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D10" activeCellId="0" sqref="D10"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F19" activeCellId="0" sqref="F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="21.6326530612245"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1023" min="1" style="0" width="21.63"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1024" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1643,7 +1653,7 @@
         <v>13</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C2" s="0" t="s">
         <v>15</v>
@@ -1659,7 +1669,7 @@
       <c r="B3" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="C3" s="0" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1667,18 +1677,18 @@
       <c r="A4" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="0" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="22.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C4" s="0" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
         <v>25</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="0" t="s">
+      <c r="C5" s="0" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1686,8 +1696,8 @@
       <c r="A6" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="0" t="s">
-        <v>66</v>
+      <c r="C6" s="0" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1697,8 +1707,8 @@
       <c r="B7" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="0" t="s">
-        <v>67</v>
+      <c r="C7" s="0" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1708,19 +1718,19 @@
       <c r="B8" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D8" s="0" t="s">
+      <c r="C8" s="0" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="C9" s="0" t="s">
         <v>33</v>
-      </c>
-      <c r="D9" s="0" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1728,13 +1738,13 @@
         <v>25</v>
       </c>
       <c r="B10" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="D10" s="0" t="s">
         <v>36</v>
-      </c>
-      <c r="D10" s="0" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1744,24 +1754,24 @@
       <c r="B11" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="0" t="s">
-        <v>38</v>
+      <c r="C11" s="0" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="0" t="s">
-        <v>39</v>
+      <c r="C12" s="0" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="D13" s="0" t="s">
-        <v>40</v>
+      <c r="C13" s="0" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1769,27 +1779,27 @@
         <v>13</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>42</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="D15" s="0" t="s">
-        <v>43</v>
+      <c r="C15" s="0" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
